--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>840</v>
+        <v>716.6666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>803.3333333333333</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>698.5185185185186</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>709.6031746031747</v>
+        <v>1118.75</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>782.6825396825398</v>
+        <v>1128.333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>768.9021164021165</v>
+        <v>1051.388888888889</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>792.3922902494331</v>
+        <v>1047.619047619048</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>802.718253968254</v>
+        <v>1051.041666666667</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>816.305114638448</v>
+        <v>1071.296296296297</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,191 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>796.1031746031747</v>
+        <v>1086.666666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1076.515151515152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1046.527777777778</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1135.119047619047</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1177.222222222222</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1153.645833333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1146.078431372549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1160.185185185185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1157.017543859649</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1129.166666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1124.206349206349</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1115.833333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1142.68115942029</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1124.236111111111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1117.266666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1111.794871794872</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1118.765432098765</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1113.630952380952</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1101.091954022988</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1089.626984126984</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1078.671274961598</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1069.962797619048</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1060.483405483405</v>
       </c>
     </row>
   </sheetData>
